--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00702635-7444-4320-97B0-CA39C163E560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBA08A-DB02-4ECD-8EAB-8AF7757ED315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -787,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1159">
   <si>
     <t>Title</t>
   </si>
@@ -4802,6 +4802,15 @@
   </si>
   <si>
     <t>Islandora Document Content Model</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Table-Of-Contents</t>
+  </si>
+  <si>
+    <t>Subject-Local-Place</t>
   </si>
 </sst>
 </file>
@@ -5050,14 +5059,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5339,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,30 +5363,30 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="46.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="18" width="17.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="35" max="35" width="16.140625" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" customWidth="1"/>
-    <col min="37" max="48" width="19.140625" customWidth="1"/>
-    <col min="49" max="49" width="25.7109375" customWidth="1"/>
-    <col min="50" max="53" width="23.28515625" customWidth="1"/>
-    <col min="55" max="55" width="16.28515625" customWidth="1"/>
-    <col min="56" max="56" width="13.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="19" width="17.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="30" width="19.140625" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" customWidth="1"/>
+    <col min="39" max="51" width="19.140625" customWidth="1"/>
+    <col min="52" max="52" width="25.7109375" customWidth="1"/>
+    <col min="53" max="56" width="23.28515625" customWidth="1"/>
+    <col min="58" max="58" width="16.28515625" customWidth="1"/>
+    <col min="59" max="59" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5405,145 +5414,154 @@
       <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5565,31 +5583,31 @@
           <x14:formula1>
             <xm:f>'Type list'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{220336D5-88C8-43FC-BAAF-0F62C8E76DFF}">
           <x14:formula1>
             <xm:f>'Date-Qualifier list'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1048576</xm:sqref>
+          <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7091BA-978E-46FA-96E4-C1D3C047EB93}">
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA1048576</xm:sqref>
+          <xm:sqref>AB2:AB1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC2:AC1048576</xm:sqref>
+          <xm:sqref>AE2:AE1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E804B7-7CD0-4C17-8008-E4590082DA8A}">
           <x14:formula1>
             <xm:f>'Continent list'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AL2:AL1048576</xm:sqref>
+          <xm:sqref>AO2:AO1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5612,7 +5630,7 @@
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
@@ -5623,7 +5641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
@@ -5645,7 +5663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -5656,7 +5674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -5667,7 +5685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>62</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -5689,7 +5707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="173.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -5700,7 +5718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
@@ -5711,7 +5729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
@@ -5722,7 +5740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
@@ -5733,7 +5751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
@@ -5744,7 +5762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="138.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>83</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>83</v>
       </c>
@@ -5777,7 +5795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
@@ -5799,7 +5817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>83</v>
       </c>
@@ -5822,13 +5840,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>1154</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>1155</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5990,7 +6008,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>119</v>
       </c>
@@ -6006,7 +6024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>123</v>
       </c>
@@ -6046,7 +6064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>133</v>
       </c>
@@ -6098,7 +6116,7 @@
       <c r="A14" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6106,7 +6124,7 @@
       <c r="A15" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -6116,7 +6134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>150</v>
       </c>
@@ -6140,7 +6158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>156</v>
       </c>
@@ -6156,7 +6174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>160</v>
       </c>
@@ -6172,7 +6190,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>164</v>
       </c>
@@ -6192,7 +6210,7 @@
       <c r="A26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6200,7 +6218,7 @@
       <c r="A27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -6358,7 +6376,7 @@
       <c r="A47" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6366,7 +6384,7 @@
       <c r="A48" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -6484,7 +6502,7 @@
       <c r="A63" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6492,7 +6510,7 @@
       <c r="A64" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
@@ -6554,7 +6572,7 @@
       <c r="A72" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="19" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6562,7 +6580,7 @@
       <c r="A73" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
@@ -6632,7 +6650,7 @@
       <c r="A82" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="19" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6640,7 +6658,7 @@
       <c r="A83" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
@@ -6678,7 +6696,7 @@
       <c r="A88" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="19" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6686,7 +6704,7 @@
       <c r="A89" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
@@ -6868,7 +6886,7 @@
       <c r="A112" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="19" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6876,13 +6894,13 @@
       <c r="A113" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="19" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6890,7 +6908,7 @@
       <c r="A115" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
@@ -6944,7 +6962,7 @@
       <c r="A122" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6952,7 +6970,7 @@
       <c r="A123" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="20"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
@@ -7022,7 +7040,7 @@
       <c r="A132" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="19" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7030,7 +7048,7 @@
       <c r="A133" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B133" s="19"/>
+      <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
@@ -7076,7 +7094,7 @@
       <c r="A139" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="19" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7084,7 +7102,7 @@
       <c r="A140" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B140" s="19"/>
+      <c r="B140" s="20"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
@@ -7130,7 +7148,7 @@
       <c r="A146" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="19" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7138,7 +7156,7 @@
       <c r="A147" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B147" s="19"/>
+      <c r="B147" s="20"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
@@ -7176,7 +7194,7 @@
       <c r="A152" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="19" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7184,7 +7202,7 @@
       <c r="A153" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="20"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
@@ -7238,7 +7256,7 @@
       <c r="A160" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="19" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7246,13 +7264,13 @@
       <c r="A161" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B161" s="19"/>
+      <c r="B161" s="20"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="19" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7260,7 +7278,7 @@
       <c r="A163" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B163" s="19"/>
+      <c r="B163" s="20"/>
     </row>
     <row r="164" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
@@ -7354,7 +7372,7 @@
       <c r="A175" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="19" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7362,13 +7380,13 @@
       <c r="A176" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="B176" s="19"/>
+      <c r="B176" s="20"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7376,7 +7394,7 @@
       <c r="A178" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="B178" s="19"/>
+      <c r="B178" s="20"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
@@ -7486,7 +7504,7 @@
       <c r="A192" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="19" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7494,7 +7512,7 @@
       <c r="A193" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="19"/>
+      <c r="B193" s="20"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
@@ -7660,7 +7678,7 @@
       <c r="A214" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7668,7 +7686,7 @@
       <c r="A215" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B215" s="19"/>
+      <c r="B215" s="20"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
@@ -7690,7 +7708,7 @@
       <c r="A218" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7698,7 +7716,7 @@
       <c r="A219" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="B219" s="19"/>
+      <c r="B219" s="20"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
@@ -7816,7 +7834,7 @@
       <c r="A234" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7824,7 +7842,7 @@
       <c r="A235" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="B235" s="19"/>
+      <c r="B235" s="20"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
@@ -7942,7 +7960,7 @@
       <c r="A250" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="19" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7950,7 +7968,7 @@
       <c r="A251" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="B251" s="19"/>
+      <c r="B251" s="20"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
@@ -8324,7 +8342,7 @@
       <c r="A298" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="B298" s="18" t="s">
+      <c r="B298" s="19" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8332,7 +8350,7 @@
       <c r="A299" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B299" s="19"/>
+      <c r="B299" s="20"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
@@ -8394,7 +8412,7 @@
       <c r="A307" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B307" s="18" t="s">
+      <c r="B307" s="19" t="s">
         <v>685</v>
       </c>
     </row>
@@ -8402,7 +8420,7 @@
       <c r="A308" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="B308" s="19"/>
+      <c r="B308" s="20"/>
     </row>
     <row r="309" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
@@ -8432,7 +8450,7 @@
       <c r="A312" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="19" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8440,7 +8458,7 @@
       <c r="A313" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="B313" s="19"/>
+      <c r="B313" s="20"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
@@ -8502,7 +8520,7 @@
       <c r="A321" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="B321" s="18" t="s">
+      <c r="B321" s="19" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8510,7 +8528,7 @@
       <c r="A322" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B322" s="19"/>
+      <c r="B322" s="20"/>
     </row>
     <row r="323" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
@@ -8588,7 +8606,7 @@
       <c r="A332" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B332" s="18" t="s">
+      <c r="B332" s="19" t="s">
         <v>685</v>
       </c>
     </row>
@@ -8596,13 +8614,13 @@
       <c r="A333" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="B333" s="19"/>
+      <c r="B333" s="20"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="B334" s="18" t="s">
+      <c r="B334" s="19" t="s">
         <v>694</v>
       </c>
     </row>
@@ -8610,7 +8628,7 @@
       <c r="A335" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="B335" s="19"/>
+      <c r="B335" s="20"/>
     </row>
     <row r="336" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
@@ -8656,7 +8674,7 @@
       <c r="A341" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B341" s="18" t="s">
+      <c r="B341" s="19" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8664,7 +8682,7 @@
       <c r="A342" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B342" s="19"/>
+      <c r="B342" s="20"/>
     </row>
     <row r="343" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
@@ -8798,7 +8816,7 @@
       <c r="A359" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B359" s="18" t="s">
+      <c r="B359" s="19" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8806,7 +8824,7 @@
       <c r="A360" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B360" s="19"/>
+      <c r="B360" s="20"/>
     </row>
     <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
@@ -9052,7 +9070,7 @@
       <c r="A391" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B391" s="18" t="s">
+      <c r="B391" s="19" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9060,7 +9078,7 @@
       <c r="A392" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B392" s="19"/>
+      <c r="B392" s="20"/>
     </row>
     <row r="393" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
@@ -9202,7 +9220,7 @@
       <c r="A410" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="19" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9210,13 +9228,13 @@
       <c r="A411" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="B411" s="19"/>
+      <c r="B411" s="20"/>
     </row>
     <row r="412" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="B412" s="18" t="s">
+      <c r="B412" s="19" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9224,7 +9242,7 @@
       <c r="A413" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="B413" s="19"/>
+      <c r="B413" s="20"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
@@ -9422,7 +9440,7 @@
       <c r="A438" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="B438" s="18" t="s">
+      <c r="B438" s="19" t="s">
         <v>916</v>
       </c>
     </row>
@@ -9430,13 +9448,13 @@
       <c r="A439" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="B439" s="19"/>
+      <c r="B439" s="20"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="B440" s="18" t="s">
+      <c r="B440" s="19" t="s">
         <v>916</v>
       </c>
     </row>
@@ -9444,7 +9462,7 @@
       <c r="A441" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="B441" s="19"/>
+      <c r="B441" s="20"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
@@ -9578,7 +9596,7 @@
       <c r="A458" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B458" s="18" t="s">
+      <c r="B458" s="19" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9586,7 +9604,7 @@
       <c r="A459" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B459" s="19"/>
+      <c r="B459" s="20"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
@@ -9792,7 +9810,7 @@
       <c r="A485" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B485" s="18" t="s">
+      <c r="B485" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9800,7 +9818,7 @@
       <c r="A486" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B486" s="19"/>
+      <c r="B486" s="20"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
@@ -10110,7 +10128,7 @@
       <c r="A525" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B525" s="18" t="s">
+      <c r="B525" s="19" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10118,7 +10136,7 @@
       <c r="A526" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B526" s="19"/>
+      <c r="B526" s="20"/>
     </row>
     <row r="527" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="14" t="s">
@@ -10244,7 +10262,7 @@
       <c r="A542" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B542" s="18" t="s">
+      <c r="B542" s="19" t="s">
         <v>289</v>
       </c>
     </row>
@@ -10252,7 +10270,7 @@
       <c r="A543" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B543" s="19"/>
+      <c r="B543" s="20"/>
     </row>
     <row r="544" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="14" t="s">

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lehigh\Work From Home\Spreadsheet\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Work\Work From Home\Spreadsheet\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBA08A-DB02-4ECD-8EAB-8AF7757ED315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F526C6D-1B8C-498F-B169-3FDE71B1A9FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="60" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{28CCD625-11F1-4A9A-9F99-86D753960E41}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{28CCD625-11F1-4A9A-9F99-86D753960E41}">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{64D5C3CE-3911-4086-B0DF-90859684B90F}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{64D5C3CE-3911-4086-B0DF-90859684B90F}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -787,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1160">
   <si>
     <t>Title</t>
   </si>
@@ -4811,6 +4811,9 @@
   </si>
   <si>
     <t>Subject-Local-Place</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -5348,10 +5351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5361,32 +5364,32 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="19" width="17.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="37" max="37" width="16.140625" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="51" width="19.140625" customWidth="1"/>
-    <col min="52" max="52" width="25.7109375" customWidth="1"/>
-    <col min="53" max="56" width="23.28515625" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" customWidth="1"/>
-    <col min="59" max="59" width="13.140625" customWidth="1"/>
+    <col min="6" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="20" width="17.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="31" width="19.140625" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" customWidth="1"/>
+    <col min="33" max="33" width="12" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" customWidth="1"/>
+    <col min="40" max="52" width="19.140625" customWidth="1"/>
+    <col min="53" max="53" width="25.7109375" customWidth="1"/>
+    <col min="54" max="57" width="23.28515625" customWidth="1"/>
+    <col min="59" max="59" width="16.28515625" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5406,162 +5409,165 @@
         <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5583,31 +5589,31 @@
           <x14:formula1>
             <xm:f>'Type list'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{220336D5-88C8-43FC-BAAF-0F62C8E76DFF}">
           <x14:formula1>
             <xm:f>'Date-Qualifier list'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7091BA-978E-46FA-96E4-C1D3C047EB93}">
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB2:AB1048576</xm:sqref>
+          <xm:sqref>AC2:AC1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AE2:AE1048576</xm:sqref>
+          <xm:sqref>AF2:AF1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E804B7-7CD0-4C17-8008-E4590082DA8A}">
           <x14:formula1>
             <xm:f>'Continent list'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AO2:AO1048576</xm:sqref>
+          <xm:sqref>AP2:AP1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Work\Work From Home\Spreadsheet\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F526C6D-1B8C-498F-B169-3FDE71B1A9FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536F68C-EF50-455E-AFAF-E86A9B361EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="60" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -787,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1161">
   <si>
     <t>Title</t>
   </si>
@@ -1681,9 +1681,6 @@
     <t>software, multimedia</t>
   </si>
   <si>
-    <t>mixed matterial</t>
-  </si>
-  <si>
     <t>questionable</t>
   </si>
   <si>
@@ -4814,6 +4811,12 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>mixed material</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -5027,7 +5030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5071,6 +5074,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5351,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,26 +5374,26 @@
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="20" width="17.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" customWidth="1"/>
-    <col min="24" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="31" width="19.140625" customWidth="1"/>
-    <col min="32" max="32" width="18.5703125" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" customWidth="1"/>
-    <col min="40" max="52" width="19.140625" customWidth="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1"/>
-    <col min="54" max="57" width="23.28515625" customWidth="1"/>
-    <col min="59" max="59" width="16.28515625" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="17.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="11.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="53" width="19.140625" customWidth="1"/>
+    <col min="54" max="54" width="25.7109375" customWidth="1"/>
+    <col min="55" max="58" width="23.28515625" customWidth="1"/>
+    <col min="60" max="60" width="16.28515625" customWidth="1"/>
+    <col min="61" max="61" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
@@ -5421,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -5441,133 +5445,136 @@
       <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="21" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>1138</v>
-      </c>
       <c r="AQ1" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="BA1" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5601,19 +5608,19 @@
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AC2:AC1048576</xm:sqref>
+          <xm:sqref>AD2:AD1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AF2:AF1048576</xm:sqref>
+          <xm:sqref>AG2:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E804B7-7CD0-4C17-8008-E4590082DA8A}">
           <x14:formula1>
             <xm:f>'Continent list'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AP2:AP1048576</xm:sqref>
+          <xm:sqref>AQ2:AQ1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5847,13 +5854,13 @@
     </row>
     <row r="20" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>1154</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>1155</v>
-      </c>
       <c r="C20" s="18" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5900,7 +5907,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5967,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -5983,17 +5990,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6016,4306 +6023,4306 @@
   <sheetData>
     <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="20"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="20"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="20"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83" s="20"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B89" s="20"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>300</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="102" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>316</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>324</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B115" s="20"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B123" s="20"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>352</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>354</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>364</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B133" s="20"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B140" s="20"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147" s="20"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B150" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B153" s="20"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B154" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B155" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B157" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B159" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B161" s="20"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B163" s="20"/>
     </row>
     <row r="164" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B165" s="14" t="s">
         <v>422</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>424</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B168" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B169" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B170" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B171" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>438</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B176" s="20"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B178" s="20"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B179" s="14" t="s">
         <v>445</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B180" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B182" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B186" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B187" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B188" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B190" s="14" t="s">
         <v>467</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>469</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B193" s="20"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B195" s="14" t="s">
         <v>473</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B196" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B197" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B198" s="14" t="s">
         <v>479</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B199" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B200" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B201" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B204" s="14" t="s">
         <v>491</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B207" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B208" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="B208" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B209" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B210" s="14" t="s">
         <v>503</v>
-      </c>
-      <c r="B210" s="14" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B211" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B212" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B215" s="20"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B216" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B217" s="14" t="s">
         <v>513</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B219" s="20"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B220" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="B220" s="14" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>522</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B223" s="14" t="s">
         <v>524</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B224" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B225" s="14" t="s">
         <v>528</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B226" s="14" t="s">
         <v>530</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B227" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="B227" s="14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>534</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B229" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B230" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="B231" s="14" t="s">
         <v>540</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B232" s="14" t="s">
         <v>542</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B233" s="14" t="s">
         <v>544</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B235" s="20"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>546</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B237" s="14" t="s">
         <v>548</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>550</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B239" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="B239" s="14" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>554</v>
-      </c>
-      <c r="B240" s="14" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B241" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B242" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B243" s="14" t="s">
         <v>560</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B244" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B245" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B246" s="14" t="s">
         <v>566</v>
-      </c>
-      <c r="B246" s="14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B247" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>570</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B249" s="14" t="s">
         <v>572</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B251" s="20"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B252" s="14" t="s">
         <v>574</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B253" s="14" t="s">
         <v>576</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B254" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="B254" s="14" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B255" s="14" t="s">
         <v>580</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B256" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="B256" s="14" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B257" s="14" t="s">
         <v>584</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B258" s="14" t="s">
         <v>586</v>
-      </c>
-      <c r="B258" s="14" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B259" s="14" t="s">
         <v>588</v>
-      </c>
-      <c r="B259" s="14" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B260" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="B260" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B261" s="14" t="s">
         <v>592</v>
-      </c>
-      <c r="B261" s="14" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B262" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B263" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B264" s="14" t="s">
         <v>598</v>
-      </c>
-      <c r="B264" s="14" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B265" s="14" t="s">
         <v>600</v>
-      </c>
-      <c r="B265" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B266" s="14" t="s">
         <v>602</v>
-      </c>
-      <c r="B266" s="14" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B267" s="14" t="s">
         <v>604</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B268" s="14" t="s">
         <v>606</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B269" s="14" t="s">
         <v>608</v>
-      </c>
-      <c r="B269" s="14" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B270" s="14" t="s">
         <v>610</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B271" s="14" t="s">
         <v>612</v>
-      </c>
-      <c r="B271" s="14" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B272" s="14" t="s">
         <v>614</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B273" s="14" t="s">
         <v>616</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B274" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="B274" s="14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B275" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="B275" s="14" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B276" s="14" t="s">
         <v>622</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B277" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B278" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B279" s="14" t="s">
         <v>628</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B280" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B281" s="14" t="s">
         <v>632</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B282" s="14" t="s">
         <v>634</v>
-      </c>
-      <c r="B282" s="14" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B283" s="14" t="s">
         <v>636</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B284" s="14" t="s">
         <v>638</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B285" s="14" t="s">
         <v>640</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B286" s="14" t="s">
         <v>642</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B287" s="14" t="s">
         <v>644</v>
-      </c>
-      <c r="B287" s="14" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B289" s="14" t="s">
         <v>648</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B290" s="14" t="s">
         <v>650</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="B293" s="14" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B294" s="14" t="s">
         <v>658</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B295" s="14" t="s">
         <v>660</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B296" s="14" t="s">
         <v>662</v>
-      </c>
-      <c r="B296" s="14" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B297" s="14" t="s">
         <v>664</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B299" s="20"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B300" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="B300" s="14" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B301" s="14" t="s">
         <v>671</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="B302" s="14" t="s">
         <v>673</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B303" s="14" t="s">
         <v>675</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B304" s="14" t="s">
         <v>677</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B305" s="14" t="s">
         <v>679</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B306" s="14" t="s">
         <v>681</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B308" s="20"/>
     </row>
     <row r="309" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B309" s="14" t="s">
         <v>686</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B310" s="14" t="s">
         <v>688</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B311" s="14" t="s">
         <v>690</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B313" s="20"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="B314" s="14" t="s">
         <v>695</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="B315" s="14" t="s">
         <v>697</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B316" s="14" t="s">
         <v>699</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="B317" s="14" t="s">
         <v>701</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B318" s="14" t="s">
         <v>703</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B319" s="14" t="s">
         <v>705</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B320" s="14" t="s">
         <v>707</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B322" s="20"/>
     </row>
     <row r="323" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B323" s="14" t="s">
         <v>709</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B324" s="14" t="s">
         <v>711</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B325" s="14" t="s">
         <v>713</v>
-      </c>
-      <c r="B325" s="14" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B326" s="14" t="s">
         <v>715</v>
-      </c>
-      <c r="B326" s="14" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="B327" s="14" t="s">
         <v>717</v>
-      </c>
-      <c r="B327" s="14" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="B328" s="14" t="s">
         <v>719</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B329" s="14" t="s">
         <v>721</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="B330" s="14" t="s">
         <v>723</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B331" s="14" t="s">
         <v>725</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B333" s="20"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B335" s="20"/>
     </row>
     <row r="336" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B336" s="14" t="s">
         <v>727</v>
-      </c>
-      <c r="B336" s="14" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B337" s="14" t="s">
         <v>729</v>
-      </c>
-      <c r="B337" s="14" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="B338" s="14" t="s">
         <v>731</v>
-      </c>
-      <c r="B338" s="14" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B339" s="14" t="s">
         <v>733</v>
-      </c>
-      <c r="B339" s="14" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B340" s="14" t="s">
         <v>735</v>
-      </c>
-      <c r="B340" s="14" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B342" s="20"/>
     </row>
     <row r="343" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B343" s="14" t="s">
         <v>737</v>
-      </c>
-      <c r="B343" s="14" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="B344" s="14" t="s">
         <v>739</v>
-      </c>
-      <c r="B344" s="14" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B345" s="14" t="s">
         <v>741</v>
-      </c>
-      <c r="B345" s="14" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="B346" s="14" t="s">
         <v>743</v>
-      </c>
-      <c r="B346" s="14" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="B347" s="14" t="s">
         <v>745</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="B348" s="14" t="s">
         <v>747</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>749</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B350" s="14" t="s">
         <v>751</v>
-      </c>
-      <c r="B350" s="14" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>753</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B352" s="14" t="s">
         <v>755</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B353" s="14" t="s">
         <v>757</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B354" s="14" t="s">
         <v>759</v>
-      </c>
-      <c r="B354" s="14" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="B355" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="B355" s="14" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="B356" s="14" t="s">
         <v>763</v>
-      </c>
-      <c r="B356" s="14" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B357" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="B357" s="14" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="B358" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="B358" s="14" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B360" s="20"/>
     </row>
     <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="B361" s="14" t="s">
         <v>769</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B362" s="14" t="s">
         <v>771</v>
-      </c>
-      <c r="B362" s="14" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B363" s="14" t="s">
         <v>773</v>
-      </c>
-      <c r="B363" s="14" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B364" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="B364" s="14" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="B365" s="14" t="s">
         <v>777</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="B366" s="14" t="s">
         <v>779</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="B367" s="14" t="s">
         <v>781</v>
-      </c>
-      <c r="B367" s="14" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="B368" s="14" t="s">
         <v>783</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="B369" s="14" t="s">
         <v>785</v>
-      </c>
-      <c r="B369" s="14" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="B370" s="14" t="s">
         <v>787</v>
-      </c>
-      <c r="B370" s="14" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B371" s="14" t="s">
         <v>789</v>
-      </c>
-      <c r="B371" s="14" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B372" s="14" t="s">
         <v>791</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="B373" s="14" t="s">
         <v>793</v>
-      </c>
-      <c r="B373" s="14" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="B374" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="B375" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="B375" s="14" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B376" s="14" t="s">
         <v>799</v>
-      </c>
-      <c r="B376" s="14" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B377" s="14" t="s">
         <v>801</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B378" s="14" t="s">
         <v>803</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B379" s="14" t="s">
         <v>805</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B380" s="14" t="s">
         <v>807</v>
-      </c>
-      <c r="B380" s="14" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>809</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="B382" s="14" t="s">
         <v>811</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="B383" s="14" t="s">
         <v>813</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="B384" s="14" t="s">
         <v>815</v>
-      </c>
-      <c r="B384" s="14" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B385" s="14" t="s">
         <v>817</v>
-      </c>
-      <c r="B385" s="14" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B386" s="14" t="s">
         <v>819</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="B387" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="B388" s="14" t="s">
         <v>823</v>
-      </c>
-      <c r="B388" s="14" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="B389" s="14" t="s">
         <v>825</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B390" s="14" t="s">
         <v>827</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B392" s="20"/>
     </row>
     <row r="393" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="B393" s="14" t="s">
         <v>829</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="B394" s="14" t="s">
         <v>831</v>
-      </c>
-      <c r="B394" s="14" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="B395" s="14" t="s">
         <v>833</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="B396" s="14" t="s">
         <v>835</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="B397" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="B398" s="14" t="s">
         <v>839</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B399" s="14" t="s">
         <v>841</v>
-      </c>
-      <c r="B399" s="14" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="B400" s="14" t="s">
         <v>843</v>
-      </c>
-      <c r="B400" s="14" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B401" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="B402" s="14" t="s">
         <v>847</v>
-      </c>
-      <c r="B402" s="14" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="B403" s="14" t="s">
         <v>849</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="B404" s="14" t="s">
         <v>851</v>
-      </c>
-      <c r="B404" s="14" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="B405" s="14" t="s">
         <v>853</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="B406" s="14" t="s">
         <v>855</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="B407" s="14" t="s">
         <v>857</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="B408" s="14" t="s">
         <v>859</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="B409" s="14" t="s">
         <v>861</v>
-      </c>
-      <c r="B409" s="14" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B411" s="20"/>
     </row>
     <row r="412" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B413" s="20"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B414" s="14" t="s">
         <v>866</v>
-      </c>
-      <c r="B414" s="14" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="B415" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="B416" s="14" t="s">
         <v>870</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="B417" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="B417" s="14" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B418" s="14" t="s">
         <v>874</v>
-      </c>
-      <c r="B418" s="14" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="B419" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="B419" s="14" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A420" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B420" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="B420" s="14" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B421" s="14" t="s">
         <v>880</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="B422" s="14" t="s">
         <v>882</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="B423" s="14" t="s">
         <v>884</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="B424" s="14" t="s">
         <v>886</v>
-      </c>
-      <c r="B424" s="14" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="B425" s="14" t="s">
         <v>888</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="B426" s="14" t="s">
         <v>890</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="B427" s="14" t="s">
         <v>892</v>
-      </c>
-      <c r="B427" s="14" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="B428" s="14" t="s">
         <v>894</v>
-      </c>
-      <c r="B428" s="14" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="B429" s="14" t="s">
         <v>896</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="B430" s="14" t="s">
         <v>898</v>
-      </c>
-      <c r="B430" s="14" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B431" s="14" t="s">
         <v>900</v>
-      </c>
-      <c r="B431" s="14" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="B432" s="14" t="s">
         <v>902</v>
-      </c>
-      <c r="B432" s="14" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="B433" s="14" t="s">
         <v>904</v>
-      </c>
-      <c r="B433" s="14" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="B434" s="14" t="s">
         <v>906</v>
-      </c>
-      <c r="B434" s="14" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="B435" s="14" t="s">
         <v>908</v>
-      </c>
-      <c r="B435" s="14" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="B436" s="14" t="s">
         <v>910</v>
-      </c>
-      <c r="B436" s="14" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B437" s="14" t="s">
         <v>912</v>
-      </c>
-      <c r="B437" s="14" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B439" s="20"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B441" s="20"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="B442" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="B442" s="14" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="B443" s="14" t="s">
         <v>919</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="B444" s="14" t="s">
         <v>921</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B445" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="B445" s="14" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="B446" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B447" s="14" t="s">
         <v>927</v>
-      </c>
-      <c r="B447" s="14" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="B448" s="14" t="s">
         <v>929</v>
-      </c>
-      <c r="B448" s="14" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B449" s="14" t="s">
         <v>931</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="B450" s="14" t="s">
         <v>933</v>
-      </c>
-      <c r="B450" s="14" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B451" s="14" t="s">
         <v>935</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B452" s="14" t="s">
         <v>937</v>
-      </c>
-      <c r="B452" s="14" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="B453" s="14" t="s">
         <v>939</v>
-      </c>
-      <c r="B453" s="14" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="B454" s="14" t="s">
         <v>941</v>
-      </c>
-      <c r="B454" s="14" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B455" s="14" t="s">
         <v>943</v>
-      </c>
-      <c r="B455" s="14" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B456" s="14" t="s">
         <v>945</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B457" s="14" t="s">
         <v>947</v>
-      </c>
-      <c r="B457" s="14" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B458" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B459" s="20"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="B460" s="14" t="s">
         <v>949</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B461" s="14" t="s">
         <v>951</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="B462" s="14" t="s">
         <v>953</v>
-      </c>
-      <c r="B462" s="14" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="B463" s="14" t="s">
         <v>955</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="B464" s="14" t="s">
         <v>957</v>
-      </c>
-      <c r="B464" s="14" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B465" s="14" t="s">
         <v>959</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B466" s="14" t="s">
         <v>961</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="B467" s="14" t="s">
         <v>963</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="B468" s="14" t="s">
         <v>965</v>
-      </c>
-      <c r="B468" s="14" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="B469" s="14" t="s">
         <v>967</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="B470" s="14" t="s">
         <v>969</v>
-      </c>
-      <c r="B470" s="14" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="B471" s="14" t="s">
         <v>971</v>
-      </c>
-      <c r="B471" s="14" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B472" s="14" t="s">
         <v>973</v>
-      </c>
-      <c r="B472" s="14" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="B473" s="14" t="s">
         <v>975</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="B474" s="14" t="s">
         <v>977</v>
-      </c>
-      <c r="B474" s="14" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="B475" s="14" t="s">
         <v>979</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="B476" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="B476" s="14" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="B477" s="14" t="s">
         <v>983</v>
-      </c>
-      <c r="B477" s="14" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="B478" s="14" t="s">
         <v>985</v>
-      </c>
-      <c r="B478" s="14" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B479" s="14" t="s">
         <v>987</v>
-      </c>
-      <c r="B479" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B480" s="14" t="s">
         <v>989</v>
-      </c>
-      <c r="B480" s="14" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="B481" s="14" t="s">
         <v>991</v>
-      </c>
-      <c r="B481" s="14" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="B482" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="B482" s="14" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="B483" s="14" t="s">
         <v>995</v>
-      </c>
-      <c r="B483" s="14" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="B484" s="14" t="s">
         <v>997</v>
-      </c>
-      <c r="B484" s="14" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B485" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B486" s="20"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="B487" s="14" t="s">
         <v>999</v>
-      </c>
-      <c r="B487" s="14" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B488" s="14" t="s">
         <v>1001</v>
-      </c>
-      <c r="B488" s="14" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B489" s="14" t="s">
         <v>1003</v>
-      </c>
-      <c r="B489" s="14" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B490" s="14" t="s">
         <v>1005</v>
-      </c>
-      <c r="B490" s="14" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B491" s="14" t="s">
         <v>1007</v>
-      </c>
-      <c r="B491" s="14" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B492" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="B492" s="14" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B493" s="14" t="s">
         <v>1011</v>
-      </c>
-      <c r="B493" s="14" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B494" s="14" t="s">
         <v>1013</v>
-      </c>
-      <c r="B494" s="14" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B495" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="B495" s="14" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B496" s="14" t="s">
         <v>1017</v>
-      </c>
-      <c r="B496" s="14" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B497" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="B497" s="14" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B498" s="14" t="s">
         <v>1021</v>
-      </c>
-      <c r="B498" s="14" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B499" s="14" t="s">
         <v>1023</v>
-      </c>
-      <c r="B499" s="14" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B500" s="14" t="s">
         <v>1025</v>
-      </c>
-      <c r="B500" s="14" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B501" s="14" t="s">
         <v>1027</v>
-      </c>
-      <c r="B501" s="14" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B502" s="14" t="s">
         <v>1029</v>
-      </c>
-      <c r="B502" s="14" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B503" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="B503" s="14" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B504" s="14" t="s">
         <v>1033</v>
-      </c>
-      <c r="B504" s="14" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B505" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="B505" s="14" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B506" s="14" t="s">
         <v>1037</v>
-      </c>
-      <c r="B506" s="14" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B507" s="14" t="s">
         <v>1039</v>
-      </c>
-      <c r="B507" s="14" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B508" s="14" t="s">
         <v>1041</v>
-      </c>
-      <c r="B508" s="14" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B509" s="14" t="s">
         <v>1043</v>
-      </c>
-      <c r="B509" s="14" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B510" s="14" t="s">
         <v>1045</v>
-      </c>
-      <c r="B510" s="14" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B511" s="14" t="s">
         <v>1047</v>
-      </c>
-      <c r="B511" s="14" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B512" s="14" t="s">
         <v>1049</v>
-      </c>
-      <c r="B512" s="14" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B513" s="14" t="s">
         <v>1051</v>
-      </c>
-      <c r="B513" s="14" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B514" s="14" t="s">
         <v>1053</v>
-      </c>
-      <c r="B514" s="14" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B515" s="14" t="s">
         <v>1055</v>
-      </c>
-      <c r="B515" s="14" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B516" s="14" t="s">
         <v>1057</v>
-      </c>
-      <c r="B516" s="14" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B517" s="14" t="s">
         <v>1059</v>
-      </c>
-      <c r="B517" s="14" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B518" s="14" t="s">
         <v>1061</v>
-      </c>
-      <c r="B518" s="14" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B519" s="14" t="s">
         <v>1063</v>
-      </c>
-      <c r="B519" s="14" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B520" s="14" t="s">
         <v>1065</v>
-      </c>
-      <c r="B520" s="14" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B521" s="14" t="s">
         <v>1067</v>
-      </c>
-      <c r="B521" s="14" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B522" s="14" t="s">
         <v>1069</v>
-      </c>
-      <c r="B522" s="14" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B523" s="14" t="s">
         <v>1071</v>
-      </c>
-      <c r="B523" s="14" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B524" s="14" t="s">
         <v>1073</v>
-      </c>
-      <c r="B524" s="14" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B525" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B526" s="20"/>
     </row>
     <row r="527" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B527" s="14" t="s">
         <v>1075</v>
-      </c>
-      <c r="B527" s="14" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B528" s="14" t="s">
         <v>1077</v>
-      </c>
-      <c r="B528" s="14" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B529" s="14" t="s">
         <v>1079</v>
-      </c>
-      <c r="B529" s="14" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B530" s="14" t="s">
         <v>1081</v>
-      </c>
-      <c r="B530" s="14" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B531" s="14" t="s">
         <v>1083</v>
-      </c>
-      <c r="B531" s="14" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B532" s="14" t="s">
         <v>1085</v>
-      </c>
-      <c r="B532" s="14" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B533" s="14" t="s">
         <v>1087</v>
-      </c>
-      <c r="B533" s="14" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B534" s="14" t="s">
         <v>1089</v>
-      </c>
-      <c r="B534" s="14" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B535" s="14" t="s">
         <v>1091</v>
-      </c>
-      <c r="B535" s="14" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A536" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B536" s="14" t="s">
         <v>1093</v>
-      </c>
-      <c r="B536" s="14" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B537" s="14" t="s">
         <v>1095</v>
-      </c>
-      <c r="B537" s="14" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A538" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B538" s="14" t="s">
         <v>1097</v>
-      </c>
-      <c r="B538" s="14" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B539" s="14" t="s">
         <v>1099</v>
-      </c>
-      <c r="B539" s="14" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A540" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B540" s="14" t="s">
         <v>1101</v>
-      </c>
-      <c r="B540" s="14" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A541" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B541" s="14" t="s">
         <v>1103</v>
-      </c>
-      <c r="B541" s="14" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B542" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B543" s="20"/>
     </row>
     <row r="544" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B544" s="14" t="s">
         <v>1105</v>
-      </c>
-      <c r="B544" s="14" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B545" s="14" t="s">
         <v>1107</v>
-      </c>
-      <c r="B545" s="14" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B546" s="14" t="s">
         <v>1109</v>
-      </c>
-      <c r="B546" s="14" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A547" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B547" s="14" t="s">
         <v>1111</v>
-      </c>
-      <c r="B547" s="14" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A548" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B548" s="14" t="s">
         <v>1113</v>
-      </c>
-      <c r="B548" s="14" t="s">
-        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -10380,77 +10387,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -10476,22 +10483,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -10514,27 +10521,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -10557,37 +10564,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Work\Work From Home\Spreadsheet\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536F68C-EF50-455E-AFAF-E86A9B361EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C035C-B4C0-4813-BDA8-E0BD40F481B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,12 +1329,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alex Japha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+WHEN APPLICABLE
+Use 2 digits</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1163">
   <si>
     <t>Title</t>
   </si>
@@ -4817,6 +4842,12 @@
   </si>
   <si>
     <t>Season</t>
+  </si>
+  <si>
+    <t>Article-Number</t>
+  </si>
+  <si>
+    <t>CopiBook OS A1</t>
   </si>
 </sst>
 </file>
@@ -5068,13 +5099,13 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5355,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,9 +5422,10 @@
     <col min="55" max="58" width="23.28515625" customWidth="1"/>
     <col min="60" max="60" width="16.28515625" customWidth="1"/>
     <col min="61" max="61" width="13.140625" customWidth="1"/>
+    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5445,7 +5477,7 @@
       <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>1160</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -5576,6 +5608,9 @@
       </c>
       <c r="BI1" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -6129,7 +6164,7 @@
       <c r="A14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6137,7 +6172,7 @@
       <c r="A15" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -6223,7 +6258,7 @@
       <c r="A26" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6231,7 +6266,7 @@
       <c r="A27" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -6389,7 +6424,7 @@
       <c r="A47" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6397,7 +6432,7 @@
       <c r="A48" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -6515,7 +6550,7 @@
       <c r="A63" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="20" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6523,7 +6558,7 @@
       <c r="A64" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
@@ -6585,7 +6620,7 @@
       <c r="A72" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="20" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6593,7 +6628,7 @@
       <c r="A73" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
@@ -6663,7 +6698,7 @@
       <c r="A82" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="20" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6671,7 +6706,7 @@
       <c r="A83" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
@@ -6709,7 +6744,7 @@
       <c r="A88" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="20" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6717,7 +6752,7 @@
       <c r="A89" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
@@ -6899,7 +6934,7 @@
       <c r="A112" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="20" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6907,13 +6942,13 @@
       <c r="A113" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="21"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="20" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6921,7 +6956,7 @@
       <c r="A115" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="21"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
@@ -6975,7 +7010,7 @@
       <c r="A122" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6983,7 +7018,7 @@
       <c r="A123" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="21"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
@@ -7053,7 +7088,7 @@
       <c r="A132" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="20" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7061,7 +7096,7 @@
       <c r="A133" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="21"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
@@ -7107,7 +7142,7 @@
       <c r="A139" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="20" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7115,7 +7150,7 @@
       <c r="A140" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B140" s="20"/>
+      <c r="B140" s="21"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
@@ -7161,7 +7196,7 @@
       <c r="A146" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7169,7 +7204,7 @@
       <c r="A147" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B147" s="20"/>
+      <c r="B147" s="21"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
@@ -7207,7 +7242,7 @@
       <c r="A152" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7215,7 +7250,7 @@
       <c r="A153" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B153" s="20"/>
+      <c r="B153" s="21"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
@@ -7269,7 +7304,7 @@
       <c r="A160" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="20" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7277,13 +7312,13 @@
       <c r="A161" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="21"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="20" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7291,7 +7326,7 @@
       <c r="A163" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="21"/>
     </row>
     <row r="164" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
@@ -7385,7 +7420,7 @@
       <c r="A175" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B175" s="20" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7393,13 +7428,13 @@
       <c r="A176" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="B176" s="20"/>
+      <c r="B176" s="21"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7407,7 +7442,7 @@
       <c r="A178" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B178" s="20"/>
+      <c r="B178" s="21"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
@@ -7517,7 +7552,7 @@
       <c r="A192" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B192" s="20" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7525,7 +7560,7 @@
       <c r="A193" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B193" s="20"/>
+      <c r="B193" s="21"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
@@ -7691,7 +7726,7 @@
       <c r="A214" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7699,7 +7734,7 @@
       <c r="A215" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B215" s="20"/>
+      <c r="B215" s="21"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
@@ -7721,7 +7756,7 @@
       <c r="A218" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="B218" s="19" t="s">
+      <c r="B218" s="20" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7729,7 +7764,7 @@
       <c r="A219" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="B219" s="20"/>
+      <c r="B219" s="21"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
@@ -7847,7 +7882,7 @@
       <c r="A234" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="B234" s="19" t="s">
+      <c r="B234" s="20" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7855,7 +7890,7 @@
       <c r="A235" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="B235" s="20"/>
+      <c r="B235" s="21"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
@@ -7973,7 +8008,7 @@
       <c r="A250" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B250" s="19" t="s">
+      <c r="B250" s="20" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7981,7 +8016,7 @@
       <c r="A251" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="B251" s="20"/>
+      <c r="B251" s="21"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
@@ -8355,7 +8390,7 @@
       <c r="A298" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="B298" s="19" t="s">
+      <c r="B298" s="20" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8363,7 +8398,7 @@
       <c r="A299" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="21"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
@@ -8425,7 +8460,7 @@
       <c r="A307" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B307" s="19" t="s">
+      <c r="B307" s="20" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8433,7 +8468,7 @@
       <c r="A308" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="B308" s="20"/>
+      <c r="B308" s="21"/>
     </row>
     <row r="309" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
@@ -8463,7 +8498,7 @@
       <c r="A312" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="B312" s="19" t="s">
+      <c r="B312" s="20" t="s">
         <v>693</v>
       </c>
     </row>
@@ -8471,7 +8506,7 @@
       <c r="A313" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="B313" s="20"/>
+      <c r="B313" s="21"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
@@ -8533,7 +8568,7 @@
       <c r="A321" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="B321" s="19" t="s">
+      <c r="B321" s="20" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8541,7 +8576,7 @@
       <c r="A322" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="B322" s="20"/>
+      <c r="B322" s="21"/>
     </row>
     <row r="323" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
@@ -8619,7 +8654,7 @@
       <c r="A332" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B332" s="19" t="s">
+      <c r="B332" s="20" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8627,13 +8662,13 @@
       <c r="A333" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="B333" s="20"/>
+      <c r="B333" s="21"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="B334" s="19" t="s">
+      <c r="B334" s="20" t="s">
         <v>693</v>
       </c>
     </row>
@@ -8641,7 +8676,7 @@
       <c r="A335" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="B335" s="20"/>
+      <c r="B335" s="21"/>
     </row>
     <row r="336" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
@@ -8687,7 +8722,7 @@
       <c r="A341" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B341" s="19" t="s">
+      <c r="B341" s="20" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8695,7 +8730,7 @@
       <c r="A342" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B342" s="20"/>
+      <c r="B342" s="21"/>
     </row>
     <row r="343" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
@@ -8829,7 +8864,7 @@
       <c r="A359" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B359" s="19" t="s">
+      <c r="B359" s="20" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8837,7 +8872,7 @@
       <c r="A360" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B360" s="20"/>
+      <c r="B360" s="21"/>
     </row>
     <row r="361" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
@@ -9083,7 +9118,7 @@
       <c r="A391" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B391" s="19" t="s">
+      <c r="B391" s="20" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9091,7 +9126,7 @@
       <c r="A392" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B392" s="20"/>
+      <c r="B392" s="21"/>
     </row>
     <row r="393" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
@@ -9233,7 +9268,7 @@
       <c r="A410" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="B410" s="19" t="s">
+      <c r="B410" s="20" t="s">
         <v>864</v>
       </c>
     </row>
@@ -9241,13 +9276,13 @@
       <c r="A411" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="B411" s="20"/>
+      <c r="B411" s="21"/>
     </row>
     <row r="412" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="B412" s="19" t="s">
+      <c r="B412" s="20" t="s">
         <v>864</v>
       </c>
     </row>
@@ -9255,7 +9290,7 @@
       <c r="A413" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="B413" s="20"/>
+      <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
@@ -9453,7 +9488,7 @@
       <c r="A438" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="B438" s="19" t="s">
+      <c r="B438" s="20" t="s">
         <v>915</v>
       </c>
     </row>
@@ -9461,13 +9496,13 @@
       <c r="A439" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="B439" s="20"/>
+      <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="B440" s="19" t="s">
+      <c r="B440" s="20" t="s">
         <v>915</v>
       </c>
     </row>
@@ -9475,7 +9510,7 @@
       <c r="A441" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="B441" s="20"/>
+      <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
@@ -9609,7 +9644,7 @@
       <c r="A458" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B458" s="19" t="s">
+      <c r="B458" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9617,7 +9652,7 @@
       <c r="A459" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B459" s="20"/>
+      <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
@@ -9823,7 +9858,7 @@
       <c r="A485" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B485" s="19" t="s">
+      <c r="B485" s="20" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9831,7 +9866,7 @@
       <c r="A486" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B486" s="20"/>
+      <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
@@ -10141,7 +10176,7 @@
       <c r="A525" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B525" s="19" t="s">
+      <c r="B525" s="20" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10149,7 +10184,7 @@
       <c r="A526" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B526" s="20"/>
+      <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="14" t="s">
@@ -10275,7 +10310,7 @@
       <c r="A542" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B542" s="19" t="s">
+      <c r="B542" s="20" t="s">
         <v>288</v>
       </c>
     </row>
@@ -10283,7 +10318,7 @@
       <c r="A543" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B543" s="20"/>
+      <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="14" t="s">
@@ -10327,46 +10362,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="B542:B543"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="B485:B486"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="B162:B163"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B152:B153"/>
     <mergeCell ref="B132:B133"/>
     <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="B542:B543"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="B485:B486"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10508,10 +10543,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D578EF-649E-426F-B6DD-09CD02AA5A10}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10542,6 +10577,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1162</v>
       </c>
     </row>
   </sheetData>

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\scans\Metadata Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C035C-B4C0-4813-BDA8-E0BD40F481B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C36B52C-6D21-444B-A8C3-FB04916D15C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1164">
   <si>
     <t>Title</t>
   </si>
@@ -4848,6 +4848,9 @@
   </si>
   <si>
     <t>CopiBook OS A1</t>
+  </si>
+  <si>
+    <t>DOI</t>
   </si>
 </sst>
 </file>
@@ -5386,10 +5389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ1"/>
+  <dimension ref="A1:BK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BE12" sqref="BE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5419,13 +5422,13 @@
     <col min="40" max="40" width="13.7109375" customWidth="1"/>
     <col min="41" max="53" width="19.140625" customWidth="1"/>
     <col min="54" max="54" width="25.7109375" customWidth="1"/>
-    <col min="55" max="58" width="23.28515625" customWidth="1"/>
-    <col min="60" max="60" width="16.28515625" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" customWidth="1"/>
-    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="59" width="23.28515625" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" customWidth="1"/>
+    <col min="62" max="62" width="13.140625" customWidth="1"/>
+    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5597,19 +5600,22 @@
       <c r="BE1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -10362,46 +10368,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
     <mergeCell ref="B525:B526"/>
     <mergeCell ref="B542:B543"/>
     <mergeCell ref="B458:B459"/>
     <mergeCell ref="B485:B486"/>
     <mergeCell ref="B438:B439"/>
     <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\scans\Metadata Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C36B52C-6D21-444B-A8C3-FB04916D15C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37850023-90D2-49D1-AF43-88FCB6BA9EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3495" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -787,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1166">
   <si>
     <t>Title</t>
   </si>
@@ -4851,6 +4851,12 @@
   </si>
   <si>
     <t>DOI</t>
+  </si>
+  <si>
+    <t>Creator-Date</t>
+  </si>
+  <si>
+    <t>Creator-Description</t>
   </si>
 </sst>
 </file>
@@ -5389,10 +5395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,31 +5410,33 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="7" width="42.42578125" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="21" width="17.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" customWidth="1"/>
-    <col min="25" max="26" width="11.140625" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="30" width="14.42578125" customWidth="1"/>
-    <col min="31" max="32" width="19.140625" customWidth="1"/>
-    <col min="33" max="33" width="18.5703125" customWidth="1"/>
-    <col min="34" max="34" width="12" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" customWidth="1"/>
-    <col min="41" max="53" width="19.140625" customWidth="1"/>
-    <col min="54" max="54" width="25.7109375" customWidth="1"/>
-    <col min="55" max="59" width="23.28515625" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" customWidth="1"/>
-    <col min="62" max="62" width="13.140625" customWidth="1"/>
-    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="23" width="17.85546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" customWidth="1"/>
+    <col min="27" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="32" width="14.42578125" customWidth="1"/>
+    <col min="33" max="34" width="19.140625" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" customWidth="1"/>
+    <col min="36" max="36" width="12" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" customWidth="1"/>
+    <col min="43" max="55" width="19.140625" customWidth="1"/>
+    <col min="56" max="56" width="25.7109375" customWidth="1"/>
+    <col min="57" max="61" width="23.28515625" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" customWidth="1"/>
+    <col min="64" max="64" width="13.140625" customWidth="1"/>
+    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5456,166 +5464,172 @@
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>1160</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -5637,31 +5651,31 @@
           <x14:formula1>
             <xm:f>'Type list'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{220336D5-88C8-43FC-BAAF-0F62C8E76DFF}">
           <x14:formula1>
             <xm:f>'Date-Qualifier list'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7091BA-978E-46FA-96E4-C1D3C047EB93}">
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AD2:AD1048576</xm:sqref>
+          <xm:sqref>AF2:AF1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AG2:AG1048576</xm:sqref>
+          <xm:sqref>AI2:AI1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E804B7-7CD0-4C17-8008-E4590082DA8A}">
           <x14:formula1>
             <xm:f>'Continent list'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AQ2:AQ1048576</xm:sqref>
+          <xm:sqref>AS2:AS1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10368,46 +10382,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B525:B526"/>
+    <mergeCell ref="B542:B543"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="B485:B486"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="B162:B163"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B152:B153"/>
     <mergeCell ref="B132:B133"/>
     <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B525:B526"/>
-    <mergeCell ref="B542:B543"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="B485:B486"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B114:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/digitalcollections-standard-metadata.xlsx
+++ b/digitalcollections-standard-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\scans\Metadata Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37850023-90D2-49D1-AF43-88FCB6BA9EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F76D258-6A5D-4080-A284-A87881BB0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3495" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="750" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Islandora Metadata Template" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{1C97156B-ECD1-4A9F-A796-AA0F9A759A74}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{A45955F0-C447-4E97-A7BA-BD50D6CFDEEA}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{454DE92F-D709-4465-BBD9-0A87F9FE3884}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B54B678A-3085-4E00-B156-EEE7F291535C}">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{63A938D5-DD9F-4C28-85B7-862F01C2557B}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{F3FC3F32-7AD5-4AD5-BC96-E284BC31D639}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C8C7F5BA-7F77-486D-89C1-EE8841EBF865}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E3B509DE-43E9-44B5-BDEC-98F9565127F8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E2CC8CA8-D47F-4EEC-A37F-5713BAB9E324}">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{091FF495-4462-4CC1-8F23-39AEEA05BB0A}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{E08F8DEB-76A8-4E0E-966F-F84105839B5D}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{C37A58A6-F5F3-40F1-A828-7C18B781422F}">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{3991E12B-3A71-4A97-B3B5-1180C0193E47}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{85E6D484-5A90-45DD-9A06-ACAEA4E36301}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{F6F51BBE-97C7-4474-9B6A-5F28B5E6742F}">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{4BBD92AC-9B74-421C-B77E-49175DBE1818}">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{A13F7FB5-2D79-4361-A957-990F73831417}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{6FFEBC39-3422-4FA0-98D2-223893A185AA}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{5D40D71D-7BB4-4B93-99E1-B2FD752A62E9}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{FC850D2C-B335-4894-B732-C94221F61B96}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{3C8AC224-C308-41F9-9AF6-DC71515D8098}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{5C0A6C82-6B8A-4ADD-AA15-F5F27C7C9B16}">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{795F82C3-4195-4E48-981C-501ABEED3CA8}">
       <text>
         <r>
           <rPr>
@@ -787,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{B17F5182-5CD6-471A-802B-B04940EB1F07}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{83A64A19-0D57-4885-9A2C-DFE6B3D0CF3A}">
       <text>
         <r>
           <rPr>
@@ -841,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{C23793B6-57EA-4BE5-9374-0C67D52D0D5C}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{23EDBB42-EB78-4084-A22A-E2A320B7B718}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{45483B7E-8619-46BA-A868-6DC1B5F0ED97}">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{5BD000C3-A115-4E53-8A98-07117A910125}">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{527DD670-6695-4116-85B3-1CE1EA2DA186}">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{0CC13B28-9888-42DD-8F14-3A6BF2C85C1C}">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{F075041D-AC35-4BDD-9FFC-350CC10834A2}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{333A9A2C-E124-41E6-9B23-490A99F08BC2}">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{84379401-96F6-4E2F-BBE5-9AEA5930F1F7}">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{F720710D-75B1-488B-81EF-656017BCBEC9}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{6B5BA4A9-A003-422D-BEA9-EB7231906A21}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{A1695DDE-F786-4133-9E01-B711A4B3B5E0}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{6E8A1D6E-E9E7-4730-96F4-42FCA2E3B89E}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{B5624D4B-1D6E-41B2-B550-962F9614479A}">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{8F72E90C-4BED-4038-997E-A10E8E8AA220}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{7D7262B2-604D-4B7F-8CCD-D4AD1EB59919}">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{8903C426-306A-4610-8322-B47368832A22}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{581ADCAD-C33E-4E29-A328-0CB4CAFA8386}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{2D74D483-8099-47E3-BB22-E0D0F1C8457F}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{CB0A2234-5B90-4BB8-9732-FF68CDCA7B90}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1168">
   <si>
     <t>Title</t>
   </si>
@@ -4857,6 +4857,12 @@
   </si>
   <si>
     <t>Creator-Description</t>
+  </si>
+  <si>
+    <t>Photographer</t>
+  </si>
+  <si>
+    <t>Barcode</t>
   </si>
 </sst>
 </file>
@@ -5395,10 +5401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BK8" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,31 +5418,32 @@
     <col min="8" max="8" width="46.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="23" width="17.85546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="32" width="14.42578125" customWidth="1"/>
-    <col min="33" max="34" width="19.140625" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" customWidth="1"/>
-    <col min="36" max="36" width="12" customWidth="1"/>
-    <col min="41" max="41" width="16.140625" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" customWidth="1"/>
-    <col min="43" max="55" width="19.140625" customWidth="1"/>
-    <col min="56" max="56" width="25.7109375" customWidth="1"/>
-    <col min="57" max="61" width="23.28515625" customWidth="1"/>
-    <col min="63" max="63" width="16.28515625" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" customWidth="1"/>
-    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="24" width="17.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="29" width="11.140625" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="12" customWidth="1"/>
+    <col min="42" max="42" width="16.140625" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" customWidth="1"/>
+    <col min="44" max="56" width="19.140625" customWidth="1"/>
+    <col min="57" max="57" width="25.7109375" customWidth="1"/>
+    <col min="58" max="63" width="23.28515625" customWidth="1"/>
+    <col min="65" max="65" width="16.28515625" customWidth="1"/>
+    <col min="66" max="66" width="13.140625" customWidth="1"/>
+    <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5470,166 +5477,172 @@
       <c r="K1" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>1160</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BL1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -5651,31 +5664,31 @@
           <x14:formula1>
             <xm:f>'Type list'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1048576</xm:sqref>
+          <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{220336D5-88C8-43FC-BAAF-0F62C8E76DFF}">
           <x14:formula1>
             <xm:f>'Date-Qualifier list'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D7091BA-978E-46FA-96E4-C1D3C047EB93}">
           <x14:formula1>
             <xm:f>'Digital-Origin list'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AF2:AF1048576</xm:sqref>
+          <xm:sqref>AG2:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0775DFD4-8502-4F27-ACAE-32EBE7E704B0}">
           <x14:formula1>
             <xm:f>'Capture-Device list'!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AI2:AI1048576</xm:sqref>
+          <xm:sqref>AJ2:AJ1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E804B7-7CD0-4C17-8008-E4590082DA8A}">
           <x14:formula1>
             <xm:f>'Continent list'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AS2:AS1048576</xm:sqref>
+          <xm:sqref>AT2:AT1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
